--- a/wild_reports/tr0331t005_wild_report.xlsx
+++ b/wild_reports/tr0331t005_wild_report.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,7 +597,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -610,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -628,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -646,7 +650,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -659,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -697,7 +705,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -730,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -748,7 +756,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -799,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -823,7 +835,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>MARBLE RANGE PARK</t>
+          <t>Marble Range Park</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -840,7 +852,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -858,7 +870,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -871,15 +887,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -889,7 +913,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -907,7 +931,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -920,15 +948,23 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -938,7 +974,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -956,7 +992,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -969,15 +1009,23 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -987,7 +1035,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1005,7 +1053,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1018,15 +1070,23 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1036,7 +1096,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1054,7 +1114,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1067,15 +1131,23 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1105,7 +1177,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1129,7 +1201,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>MARBLE RANGE PARK</t>
+          <t>Marble Range Park</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1166,7 +1238,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1190,7 +1262,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>MARBLE RANGE PARK</t>
+          <t>Marble Range Park</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1207,7 +1279,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1225,7 +1297,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1238,15 +1314,23 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1256,7 +1340,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1274,7 +1358,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1287,15 +1375,23 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1305,7 +1401,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1323,7 +1419,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1336,15 +1436,23 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1354,7 +1462,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1372,7 +1480,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1385,15 +1497,23 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1403,7 +1523,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1421,7 +1541,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1434,15 +1558,23 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1452,7 +1584,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1470,7 +1602,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1483,15 +1619,23 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1521,7 +1665,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,7 +1718,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1627,7 +1771,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1660,7 +1804,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1678,7 +1822,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1691,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1729,7 +1877,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1782,7 +1930,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1815,7 +1963,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1833,7 +1981,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1846,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1864,7 +2016,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1882,7 +2034,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1895,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1913,7 +2069,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1931,7 +2087,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1944,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -1962,7 +2122,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1980,7 +2140,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1993,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -2011,7 +2175,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2029,7 +2193,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2042,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2060,7 +2228,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2078,7 +2246,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2091,15 +2263,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2109,7 +2289,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2127,7 +2307,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2140,15 +2324,23 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Marble Range Park</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2158,7 +2350,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2176,7 +2368,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2189,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2207,7 +2403,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2225,7 +2421,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2238,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2276,7 +2476,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2309,7 +2509,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2327,7 +2527,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2340,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2358,7 +2562,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2376,7 +2580,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2389,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2407,7 +2615,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2425,7 +2633,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2438,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2456,7 +2668,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2474,7 +2686,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2487,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2505,7 +2721,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2523,7 +2739,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2536,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2554,7 +2774,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2572,7 +2792,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2585,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2623,7 +2847,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>FISHER</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -2676,7 +2900,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2709,7 +2933,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2727,7 +2951,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2740,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2758,7 +2986,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2776,7 +3004,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2789,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2807,7 +3039,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2825,7 +3057,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2838,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2876,7 +3112,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2909,7 +3145,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2927,7 +3163,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2940,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -2978,7 +3218,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -3031,7 +3271,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -3064,7 +3304,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3082,7 +3322,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3095,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3113,7 +3357,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3131,7 +3375,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3144,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3182,7 +3430,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -3235,7 +3483,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -3288,7 +3536,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -3321,7 +3569,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3339,7 +3587,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3352,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3622,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3388,7 +3640,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3401,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3419,7 +3675,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3437,7 +3693,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3450,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3488,7 +3748,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -3521,7 +3781,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3539,7 +3799,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3552,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3590,7 +3854,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -3643,7 +3907,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -3696,7 +3960,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -3729,7 +3993,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -3747,7 +4011,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3760,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -3798,7 +4066,7 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -3831,7 +4099,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -3849,7 +4117,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3862,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -3880,7 +4152,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -3898,7 +4170,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3911,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -3929,7 +4205,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -3947,7 +4223,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3960,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -3978,7 +4258,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -3996,7 +4276,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4009,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -4047,7 +4331,7 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
@@ -4100,7 +4384,7 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
@@ -4133,7 +4417,7 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -4151,7 +4435,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4164,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
@@ -4182,7 +4470,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -4200,7 +4488,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4213,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
@@ -4231,7 +4523,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4249,7 +4541,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4262,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4280,7 +4576,7 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -4298,7 +4594,11 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4311,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
@@ -4349,7 +4649,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
@@ -4402,7 +4702,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
@@ -4455,7 +4755,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
@@ -4508,7 +4808,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
@@ -4541,7 +4841,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -4559,7 +4859,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4572,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
@@ -4610,7 +4914,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">

--- a/wild_reports/tr0331t005_wild_report.xlsx
+++ b/wild_reports/tr0331t005_wild_report.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +597,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -614,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +628,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +646,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -667,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -738,7 +730,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +748,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -773,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -852,7 +840,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -870,11 +858,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -887,23 +871,15 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -913,7 +889,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -931,11 +907,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -948,23 +920,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -974,7 +938,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -992,11 +956,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1009,23 +969,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1035,7 +987,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1053,11 +1005,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1070,23 +1018,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1096,7 +1036,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1114,11 +1054,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1131,23 +1067,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1279,7 +1207,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1297,11 +1225,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1314,23 +1238,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1340,7 +1256,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1358,11 +1274,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1375,23 +1287,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1401,7 +1305,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1419,11 +1323,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1436,23 +1336,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1462,7 +1354,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1480,11 +1372,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1497,23 +1385,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1523,7 +1403,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1541,11 +1421,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1558,23 +1434,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1584,7 +1452,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1602,11 +1470,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1619,23 +1483,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1804,7 +1660,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1822,11 +1678,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1839,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1963,7 +1815,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1981,11 +1833,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -1998,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -2016,7 +1864,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -2034,11 +1882,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2051,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -2069,7 +1913,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -2087,11 +1931,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2104,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -2122,7 +1962,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2140,11 +1980,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2157,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -2175,7 +2011,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2193,11 +2029,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2210,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2228,7 +2060,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2246,11 +2078,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2263,23 +2091,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2289,7 +2109,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2307,11 +2127,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2324,23 +2140,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Marble Range Park</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>FILL IN WITH PERMIT AUTHORIZATION NUMBER</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2350,7 +2158,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2368,11 +2176,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2385,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2403,7 +2207,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2421,11 +2225,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2438,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2509,7 +2309,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2527,11 +2327,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2544,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2562,7 +2358,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2580,11 +2376,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2597,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2615,7 +2407,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2633,11 +2425,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2650,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2668,7 +2456,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2686,11 +2474,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2703,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2721,7 +2505,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2739,11 +2523,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2756,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2774,7 +2554,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2792,11 +2572,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2809,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2933,7 +2709,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2951,11 +2727,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -2968,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2986,7 +2758,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -3004,11 +2776,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3021,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -3039,7 +2807,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3057,11 +2825,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3074,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -3145,7 +2909,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3163,11 +2927,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3180,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -3304,7 +3064,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3322,11 +3082,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3339,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3357,7 +3113,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3375,11 +3131,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3392,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3569,7 +3321,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3587,11 +3339,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3604,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3622,7 +3370,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3640,11 +3388,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3657,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3675,7 +3419,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3693,11 +3437,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3710,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3781,7 +3521,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3799,11 +3539,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -3816,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3993,7 +3729,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -4011,11 +3747,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4028,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -4099,7 +3831,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -4117,11 +3849,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4134,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -4152,7 +3880,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4170,11 +3898,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4187,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -4205,7 +3929,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -4223,11 +3947,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4240,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -4258,7 +3978,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -4276,11 +3996,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4293,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -4417,7 +4133,7 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -4435,11 +4151,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4452,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
@@ -4470,7 +4182,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -4488,11 +4200,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4505,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
@@ -4523,7 +4231,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4541,11 +4249,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4558,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4576,7 +4280,7 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -4594,11 +4298,7 @@
           <t>November</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4611,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
@@ -4841,7 +4541,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -4859,11 +4559,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
           <t>331</t>
@@ -4876,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
